--- a/data/ANVEM PUBLISHINGT1-2025.xlsx
+++ b/data/ANVEM PUBLISHINGT1-2025.xlsx
@@ -8,7 +8,6 @@
   <sheets>
     <sheet name="By Song" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="By Source" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="By Country" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -3694,691 +3693,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" blackAndWhite="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="C3:E56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="3">
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ANVEM PUBLISHING</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>REGALIAS 1ER TRIMESTRE 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Currency : USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>COUNTRY</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>UNITS</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>ROYALTIES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="n">
-        <v>7785849</v>
-      </c>
-      <c r="E8" s="11" t="n">
-        <v>1890.27314593</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="D9" s="10" t="n">
-        <v>51592523</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>833.8321661700001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>COLOMBIA</t>
-        </is>
-      </c>
-      <c r="D10" s="10" t="n">
-        <v>19231</v>
-      </c>
-      <c r="E10" s="11" t="n">
-        <v>0.12801361</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PERU</t>
-        </is>
-      </c>
-      <c r="D11" s="10" t="n">
-        <v>17945</v>
-      </c>
-      <c r="E11" s="11" t="n">
-        <v>0.12161413</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="n">
-        <v>11930</v>
-      </c>
-      <c r="E12" s="11" t="n">
-        <v>0.07845969999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="D13" s="10" t="n">
-        <v>11335</v>
-      </c>
-      <c r="E13" s="11" t="n">
-        <v>0.07479027000000001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ECUADOR</t>
-        </is>
-      </c>
-      <c r="D14" s="10" t="n">
-        <v>11097</v>
-      </c>
-      <c r="E14" s="11" t="n">
-        <v>0.07476457</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>VENEZUELA</t>
-        </is>
-      </c>
-      <c r="D15" s="10" t="n">
-        <v>11005</v>
-      </c>
-      <c r="E15" s="11" t="n">
-        <v>0.07386885999999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>GUATEMALA</t>
-        </is>
-      </c>
-      <c r="D16" s="10" t="n">
-        <v>10502</v>
-      </c>
-      <c r="E16" s="11" t="n">
-        <v>0.06782357999999999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>EL SALVADOR</t>
-        </is>
-      </c>
-      <c r="D17" s="10" t="n">
-        <v>8775</v>
-      </c>
-      <c r="E17" s="11" t="n">
-        <v>0.05779692</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CHILE</t>
-        </is>
-      </c>
-      <c r="D18" s="10" t="n">
-        <v>8103</v>
-      </c>
-      <c r="E18" s="11" t="n">
-        <v>0.05365312</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>DOMINICAN REPUBLIC</t>
-        </is>
-      </c>
-      <c r="D19" s="10" t="n">
-        <v>7532</v>
-      </c>
-      <c r="E19" s="11" t="n">
-        <v>0.05084101</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>HONDURAS</t>
-        </is>
-      </c>
-      <c r="D20" s="10" t="n">
-        <v>6535</v>
-      </c>
-      <c r="E20" s="11" t="n">
-        <v>0.04234194</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>NICARAGUA</t>
-        </is>
-      </c>
-      <c r="D21" s="10" t="n">
-        <v>5184</v>
-      </c>
-      <c r="E21" s="11" t="n">
-        <v>0.03449593</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>PUERTO RICO</t>
-        </is>
-      </c>
-      <c r="D22" s="10" t="n">
-        <v>3188</v>
-      </c>
-      <c r="E22" s="11" t="n">
-        <v>0.03266908</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>BOLIVIA</t>
-        </is>
-      </c>
-      <c r="D23" s="10" t="n">
-        <v>4658</v>
-      </c>
-      <c r="E23" s="11" t="n">
-        <v>0.03151469</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>COSTA RICA</t>
-        </is>
-      </c>
-      <c r="D24" s="10" t="n">
-        <v>3865</v>
-      </c>
-      <c r="E24" s="11" t="n">
-        <v>0.02562153</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PANAMA</t>
-        </is>
-      </c>
-      <c r="D25" s="10" t="n">
-        <v>3230</v>
-      </c>
-      <c r="E25" s="11" t="n">
-        <v>0.02172617</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>CANADA</t>
-        </is>
-      </c>
-      <c r="D26" s="10" t="n">
-        <v>2554</v>
-      </c>
-      <c r="E26" s="11" t="n">
-        <v>0.01530319</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CUBA</t>
-        </is>
-      </c>
-      <c r="D27" s="10" t="n">
-        <v>1642</v>
-      </c>
-      <c r="E27" s="11" t="n">
-        <v>0.01079913</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>PARAGUAY</t>
-        </is>
-      </c>
-      <c r="D28" s="10" t="n">
-        <v>1578</v>
-      </c>
-      <c r="E28" s="11" t="n">
-        <v>0.01048546</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>URUGUAY</t>
-        </is>
-      </c>
-      <c r="D29" s="10" t="n">
-        <v>1190</v>
-      </c>
-      <c r="E29" s="11" t="n">
-        <v>0.00784442</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="D30" s="10" t="n">
-        <v>884</v>
-      </c>
-      <c r="E30" s="11" t="n">
-        <v>0.00577638</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="D31" s="10" t="n">
-        <v>657</v>
-      </c>
-      <c r="E31" s="11" t="n">
-        <v>0.00427644</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="D32" s="10" t="n">
-        <v>422</v>
-      </c>
-      <c r="E32" s="11" t="n">
-        <v>0.00262442</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>BELIZE</t>
-        </is>
-      </c>
-      <c r="D33" s="10" t="n">
-        <v>307</v>
-      </c>
-      <c r="E33" s="11" t="n">
-        <v>0.0019706</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="D34" s="10" t="n">
-        <v>303</v>
-      </c>
-      <c r="E34" s="11" t="n">
-        <v>0.00193028</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>UNITED KINGDOM</t>
-        </is>
-      </c>
-      <c r="D35" s="10" t="n">
-        <v>309</v>
-      </c>
-      <c r="E35" s="11" t="n">
-        <v>0.00193005</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>JAPAN</t>
-        </is>
-      </c>
-      <c r="D36" s="10" t="n">
-        <v>260</v>
-      </c>
-      <c r="E36" s="11" t="n">
-        <v>0.00166507</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="D37" s="10" t="n">
-        <v>183</v>
-      </c>
-      <c r="E37" s="11" t="n">
-        <v>0.00117069</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>SWITZERLAND</t>
-        </is>
-      </c>
-      <c r="D38" s="10" t="n">
-        <v>174</v>
-      </c>
-      <c r="E38" s="11" t="n">
-        <v>0.00109604</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>SWEDEN</t>
-        </is>
-      </c>
-      <c r="D39" s="10" t="n">
-        <v>127</v>
-      </c>
-      <c r="E39" s="11" t="n">
-        <v>0.00080622</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="D40" s="10" t="n">
-        <v>123</v>
-      </c>
-      <c r="E40" s="11" t="n">
-        <v>0.00078161</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="D41" s="10" t="n">
-        <v>107</v>
-      </c>
-      <c r="E41" s="11" t="n">
-        <v>0.00069463</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>CURACAO</t>
-        </is>
-      </c>
-      <c r="D42" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E42" s="11" t="n">
-        <v>0.00068657</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>BELGIUM</t>
-        </is>
-      </c>
-      <c r="D43" s="10" t="n">
-        <v>93</v>
-      </c>
-      <c r="E43" s="11" t="n">
-        <v>0.00059136</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>INDIA</t>
-        </is>
-      </c>
-      <c r="D44" s="10" t="n">
-        <v>90</v>
-      </c>
-      <c r="E44" s="11" t="n">
-        <v>0.00056077</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>ARUBA</t>
-        </is>
-      </c>
-      <c r="D45" s="10" t="n">
-        <v>62</v>
-      </c>
-      <c r="E45" s="11" t="n">
-        <v>0.00042568</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="D46" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="E46" s="11" t="n">
-        <v>0.00041314</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>PHILIPPINES</t>
-        </is>
-      </c>
-      <c r="D47" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="E47" s="11" t="n">
-        <v>0.00041027</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>UZBEKISTAN</t>
-        </is>
-      </c>
-      <c r="D48" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="E48" s="11" t="n">
-        <v>0.00032269</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>US VIRGIN ISLANDS</t>
-        </is>
-      </c>
-      <c r="D49" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="11" t="n">
-        <v>0.00026038</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>RUSSIA</t>
-        </is>
-      </c>
-      <c r="D50" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="E50" s="11" t="n">
-        <v>0.00025403</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>INDONESIA</t>
-        </is>
-      </c>
-      <c r="D51" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="E51" s="11" t="n">
-        <v>0.00021283</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>ISRAEL</t>
-        </is>
-      </c>
-      <c r="D52" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="E52" s="11" t="n">
-        <v>0.00019911</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>ROMANIA</t>
-        </is>
-      </c>
-      <c r="D53" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="E53" s="11" t="n">
-        <v>0.00017851</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>GUAM</t>
-        </is>
-      </c>
-      <c r="D54" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E54" s="11" t="n">
-        <v>0.00012516</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="D56" s="10" t="n">
-        <v>59533958</v>
-      </c>
-      <c r="E56" s="11" t="n">
-        <v>2725.149102339999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" blackAndWhite="0"/>
-</worksheet>
 </file>